--- a/TestApi/database/DemoAPITestCase.xlsx
+++ b/TestApi/database/DemoAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="11955" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
   <si>
     <t>module</t>
   </si>
@@ -246,20 +246,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -288,14 +281,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,65 +393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -384,6 +409,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -391,52 +423,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -453,13 +439,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,169 +559,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,17 +648,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,50 +679,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,153 +706,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -916,32 +902,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1297,22 +1283,22 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="9" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="11" style="9" customWidth="1"/>
+    <col min="8" max="8" width="28" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="9" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1358,574 +1344,574 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6">
         <v>200</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6">
         <v>200</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6">
         <v>10021</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:13">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6">
         <v>10022</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:13">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6">
         <v>10022</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" ht="43.5" customHeight="1" spans="1:13">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" ht="55.5" customHeight="1" spans="1:13">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:13">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <v>10023</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <v>10024</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <v>200</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6">
         <v>200</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6">
         <v>200</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9">
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6">
         <v>10021</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:13">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6">
         <v>10022</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6">
         <v>10022</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16">
@@ -1957,13 +1943,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -2006,7 +1992,41 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2" ht="30" customHeight="1" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6">
+        <v>200</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="8"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/TestApi/database/DemoAPITestCase.xlsx
+++ b/TestApi/database/DemoAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13650" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="14160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>module</t>
   </si>
@@ -238,6 +238,30 @@
   </si>
   <si>
     <t>{"eid":1,"phone":13355556666}</t>
+  </si>
+  <si>
+    <t>event_query_0001</t>
+  </si>
+  <si>
+    <t>tsCmdStoreAction_setCmdByArea.action</t>
+  </si>
+  <si>
+    <t>{'Accept':'text/html,application/xhtml+xml,application/xml;q=0.9,image/webp,image/apng,*/*;q=0.8',
+'User-Agent': 'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/76.0.3809.100 Safari/537.36'}</t>
+  </si>
+  <si>
+    <t>{
+"tsCmdType":"0",
+"areaIds":"91",
+"multiMediaIds":"102",
+"playCount":"1",
+"ebmLevelValue":"04",
+"ebmClassValue":"0005",
+"ebmTypeValue":"10000",
+"in_channel_id":"0",
+"out_channel_id":"1",
+"systemTime":"0",
+"duration":"60"}</t>
   </si>
 </sst>
 </file>
@@ -246,9 +270,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -281,14 +305,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,6 +380,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -310,94 +425,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,14 +447,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -439,181 +463,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,22 +672,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +698,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,38 +735,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,7 +765,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,10 +777,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -765,133 +789,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1283,7 +1307,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1291,10 +1315,10 @@
     <col min="1" max="1" width="10.375" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="9" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="36.25" style="9" customWidth="1"/>
+    <col min="4" max="4" width="62" style="9" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="11" style="9" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="9" customWidth="1"/>
     <col min="8" max="8" width="28" style="9" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="10" customWidth="1"/>
     <col min="10" max="10" width="12.125" style="10" customWidth="1"/>
@@ -1919,7 +1943,7 @@
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/" tooltip="http://127.0.0.1:8000/api/get_event_list/"/>
     <hyperlink ref="D4" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/"/>
     <hyperlink ref="D5" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/"/>
     <hyperlink ref="D6" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/"/>
@@ -1946,10 +1970,18 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="4" max="4" width="41.75" customWidth="1"/>
+    <col min="6" max="6" width="38.25" customWidth="1"/>
+    <col min="7" max="7" width="55.75" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
       <c r="A1" s="1" t="s">
@@ -1992,27 +2024,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:13">
+    <row r="2" ht="282" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="6">
         <v>200</v>
@@ -2025,7 +2059,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://127.0.0.1:8000/api/get_event_list/"/>
+    <hyperlink ref="D2" r:id="rId1" display="tsCmdStoreAction_setCmdByArea.action"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TestApi/database/DemoAPITestCase.xlsx
+++ b/TestApi/database/DemoAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14160" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="82">
   <si>
     <t>module</t>
   </si>
@@ -238,6 +238,21 @@
   </si>
   <si>
     <t>{"eid":1,"phone":13355556666}</t>
+  </si>
+  <si>
+    <t>测试接口</t>
+  </si>
+  <si>
+    <t>easy_api</t>
+  </si>
+  <si>
+    <t>登录接口</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>{'name':admin,'pwd':admin}</t>
   </si>
   <si>
     <t>event_query_0001</t>
@@ -269,9 +284,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -304,6 +319,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -312,7 +335,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,8 +401,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,77 +448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,31 +462,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,31 +472,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,157 +658,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,36 +689,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,20 +725,44 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,11 +776,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -777,10 +798,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -789,148 +810,154 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1312,630 +1339,630 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="62" style="9" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="62" style="11" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="9" customWidth="1"/>
-    <col min="8" max="8" width="28" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="24.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="11" customWidth="1"/>
+    <col min="8" max="8" width="28" style="11" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="12" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="11" customWidth="1"/>
     <col min="13" max="13" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8">
         <v>200</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6">
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8">
         <v>200</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8">
         <v>10021</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:13">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8">
         <v>10022</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:13">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8">
         <v>10022</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" ht="43.5" customHeight="1" spans="1:13">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" ht="55.5" customHeight="1" spans="1:13">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:13">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="8">
         <v>10023</v>
       </c>
-      <c r="K9" s="4" t="s">
+      <c r="K9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="8">
         <v>10024</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="8">
         <v>200</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="6">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8">
         <v>200</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="6">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8">
         <v>200</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8">
         <v>10021</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:13">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8">
         <v>10022</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8">
         <v>10022</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16">
@@ -1967,13 +1994,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="4" max="4" width="41.75" customWidth="1"/>
@@ -1984,82 +2011,110 @@
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="282" customHeight="1" spans="1:13">
-      <c r="A2" s="2" t="s">
+    <row r="2" s="1" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" ht="282" customHeight="1" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8">
         <v>200</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="8"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="tsCmdStoreAction_setCmdByArea.action"/>
+    <hyperlink ref="D3" r:id="rId1" display="tsCmdStoreAction_setCmdByArea.action"/>
+    <hyperlink ref="D2" r:id="rId2" display="login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TestApi/database/DemoAPITestCase.xlsx
+++ b/TestApi/database/DemoAPITestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="84">
   <si>
     <t>module</t>
   </si>
@@ -243,17 +243,10 @@
     <t>终端参数设置</t>
   </si>
   <si>
-    <t>szzl_xs_0001</t>
-  </si>
-  <si>
     <t>时间校准指令</t>
   </si>
   <si>
     <t>setParameterAction_timeCalibration.action</t>
-  </si>
-  <si>
-    <t>{'Accept':'text/html,application/xhtml+xml,application/xml;q=0.9,image/webp,image/apng,*/*;q=0.8',
-'User-Agent': 'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/76.0.3809.100 Safari/537.36'}</t>
   </si>
   <si>
     <t>{
@@ -262,13 +255,11 @@
 "sendTick":"10"}</t>
   </si>
   <si>
-    <t>ni</t>
+    <t>{'Accept':'text/html,application/xhtml+xml,application/xml;q=0.9,image/webp,image/apng,*/*;q=0.8',
+'User-Agent': 'Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/76.0.3809.100 Safari/537.36'}</t>
   </si>
   <si>
     <t>媒资文件播放</t>
-  </si>
-  <si>
-    <t>event_query_0001</t>
   </si>
   <si>
     <t>播放接口</t>
@@ -307,7 +298,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +312,34 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF808000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF808000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -331,17 +350,93 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF808000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -352,9 +447,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,74 +471,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,49 +479,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -503,187 +508,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,21 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -738,6 +728,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,13 +774,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,9 +806,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -817,10 +822,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -829,137 +834,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -988,16 +993,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,12 +1360,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1364,10 +1376,10 @@
     <col min="4" max="4" width="62" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="28" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="10" customWidth="1"/>
-    <col min="10" max="10" width="12.125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="11" customWidth="1"/>
     <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
   </cols>
@@ -1441,8 +1453,8 @@
       <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -1898,52 +1910,52 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" ht="80" customHeight="1" spans="1:13">
-      <c r="A17" t="s">
+    <row r="17" ht="192" customHeight="1" spans="1:13">
+      <c r="A17" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17"/>
+      <c r="I17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17"/>
-      <c r="M17"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:12">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="L19" s="16"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-      <c r="L20" s="13" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12"/>
@@ -2004,11 +2016,6 @@
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M17">
@@ -2040,20 +2047,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.6833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.8083333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.5666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.025" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.4083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="27.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.125" style="1" customWidth="1"/>
   </cols>
@@ -2099,38 +2106,40 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="149" customHeight="1" spans="1:13">
+    <row r="2" ht="192" customHeight="1" spans="1:13">
       <c r="A2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="9"/>
+    </row>
+    <row r="19" spans="12:12">
+      <c r="L19" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2157,7 +2166,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/TestApi/database/DemoAPITestCase.xlsx
+++ b/TestApi/database/DemoAPITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="14160" activeTab="1"/>
+    <workbookView windowWidth="23055" windowHeight="11460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -316,8 +316,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -371,6 +371,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -379,7 +387,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,6 +423,82 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -408,111 +513,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -535,25 +535,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,127 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,6 +751,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -761,6 +770,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -784,8 +808,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,21 +825,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,15 +848,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -856,10 +856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -868,16 +868,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
@@ -886,115 +886,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2105,8 +2105,8 @@
   <sheetPr/>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
